--- a/medicine/Handicap/Yo,_también/Yo,_también.xlsx
+++ b/medicine/Handicap/Yo,_también/Yo,_también.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yo,_tambi%C3%A9n</t>
+          <t>Yo,_también</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yo, también est un film espagnol réalisé par Álvaro Pastor et Antonio Naharro, sorti le 21 juillet 2010 en France. L'expression espagnole « yo también » signifie « moi aussi » en français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yo,_tambi%C3%A9n</t>
+          <t>Yo,_también</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel, un homme de 34 ans atteint de trisomie 21, travaille dans un centre social à Séville. Il se lie avec une de ses collègues de travail, Laura.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yo,_tambi%C3%A9n</t>
+          <t>Yo,_también</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Yo, también
 Réalisation : Antonio Naharro et Álvaro Pastor
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yo,_tambi%C3%A9n</t>
+          <t>Yo,_también</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lola Dueñas : Laura
 Pablo Pineda : Daniel
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yo,_tambi%C3%A9n</t>
+          <t>Yo,_también</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,11 +654,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix d'interprétation féminine et masculine au Festival de Saint-Sébastien 2009 pour Lola Dueñas et Pablo Pineda[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix d'interprétation féminine et masculine au Festival de Saint-Sébastien 2009 pour Lola Dueñas et Pablo Pineda
 Goya de la meilleure actrice pour Lola Dueñas
-Prix du public au Festival international du film de Rotterdam[2].
+Prix du public au Festival international du film de Rotterdam.
 A fait en outre partie de la sélection officielle du Festival de Sundance.</t>
         </is>
       </c>
